--- a/Code/Results/Cases/Case_5_211/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_211/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.064312164292232</v>
+        <v>0.8122020464435877</v>
       </c>
       <c r="C2">
-        <v>0.4405618487970742</v>
+        <v>0.1345957226481289</v>
       </c>
       <c r="D2">
-        <v>0.1098493627477453</v>
+        <v>0.1849994499780649</v>
       </c>
       <c r="E2">
-        <v>0.07840560429019661</v>
+        <v>0.1509367944983744</v>
       </c>
       <c r="F2">
-        <v>0.8045079141828211</v>
+        <v>1.307652727885483</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07690322845332176</v>
+        <v>0.1621527824639308</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5859903430960998</v>
+        <v>0.3355715691277439</v>
       </c>
       <c r="N2">
-        <v>0.702727433267242</v>
+        <v>1.26235982779518</v>
       </c>
       <c r="O2">
-        <v>1.910979242947462</v>
+        <v>3.087754504164849</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.793040669667334</v>
+        <v>0.7328332203226466</v>
       </c>
       <c r="C3">
-        <v>0.3853195972293122</v>
+        <v>0.1174590017972434</v>
       </c>
       <c r="D3">
-        <v>0.1008512736026432</v>
+        <v>0.1833800931508165</v>
       </c>
       <c r="E3">
-        <v>0.07393710992774061</v>
+        <v>0.1506820903074768</v>
       </c>
       <c r="F3">
-        <v>0.7554764042166298</v>
+        <v>1.305795992869385</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07427544480711035</v>
+        <v>0.1626666169639392</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5107742240568172</v>
+        <v>0.3150397459795542</v>
       </c>
       <c r="N3">
-        <v>0.7318175023767992</v>
+        <v>1.275168404928138</v>
       </c>
       <c r="O3">
-        <v>1.801383195132786</v>
+        <v>3.087176000199122</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.62695068138521</v>
+        <v>0.6842055932467019</v>
       </c>
       <c r="C4">
-        <v>0.3514045205987486</v>
+        <v>0.1069039566617107</v>
       </c>
       <c r="D4">
-        <v>0.09540796222534453</v>
+        <v>0.1824459978110298</v>
       </c>
       <c r="E4">
-        <v>0.07129330771718401</v>
+        <v>0.150588278072906</v>
       </c>
       <c r="F4">
-        <v>0.7269532140295425</v>
+        <v>1.30543718257028</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07280032003895087</v>
+        <v>0.1630602117256466</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4648366617452808</v>
+        <v>0.3025399794180998</v>
       </c>
       <c r="N4">
-        <v>0.7507458838366219</v>
+        <v>1.283539258625073</v>
       </c>
       <c r="O4">
-        <v>1.73836070950324</v>
+        <v>3.088817609988155</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.559359064069611</v>
+        <v>0.664416904313299</v>
       </c>
       <c r="C5">
-        <v>0.3375803946580334</v>
+        <v>0.1025946173464831</v>
       </c>
       <c r="D5">
-        <v>0.09320911070191329</v>
+        <v>0.1820805468698694</v>
       </c>
       <c r="E5">
-        <v>0.07023979142424963</v>
+        <v>0.1505658086636359</v>
       </c>
       <c r="F5">
-        <v>0.7157043178521576</v>
+        <v>1.305487348835094</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07223228062035858</v>
+        <v>0.1632402463017719</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4461697689839781</v>
+        <v>0.2974733748442873</v>
       </c>
       <c r="N5">
-        <v>0.7587197827575949</v>
+        <v>1.287077808195264</v>
       </c>
       <c r="O5">
-        <v>1.7136880436897</v>
+        <v>3.089988244028518</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.548140282676968</v>
+        <v>0.6611326965137891</v>
       </c>
       <c r="C6">
-        <v>0.3352845762694585</v>
+        <v>0.1018785741301258</v>
       </c>
       <c r="D6">
-        <v>0.09284512844589443</v>
+        <v>0.1820207839669337</v>
       </c>
       <c r="E6">
-        <v>0.07006626101713564</v>
+        <v>0.1505630302076781</v>
       </c>
       <c r="F6">
-        <v>0.7138584080725465</v>
+        <v>1.305507538229946</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07213990829631811</v>
+        <v>0.1632713272993058</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4430731047960776</v>
+        <v>0.2966337172371283</v>
       </c>
       <c r="N6">
-        <v>0.7600593499004162</v>
+        <v>1.287673074963148</v>
       </c>
       <c r="O6">
-        <v>1.709650324251413</v>
+        <v>3.090212913113533</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.626038781942924</v>
+        <v>0.6839386035113932</v>
       </c>
       <c r="C7">
-        <v>0.3512181032485842</v>
+        <v>0.1068458717813314</v>
       </c>
       <c r="D7">
-        <v>0.09537823092294673</v>
+        <v>0.1824410075814882</v>
       </c>
       <c r="E7">
-        <v>0.07127900465860293</v>
+        <v>0.1505879111991817</v>
       </c>
       <c r="F7">
-        <v>0.7268000209964356</v>
+        <v>1.30543706406246</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07279252748314846</v>
+        <v>0.1630625602029845</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4645847098656688</v>
+        <v>0.3024715391060084</v>
       </c>
       <c r="N7">
-        <v>0.750852378238541</v>
+        <v>1.283586465022381</v>
       </c>
       <c r="O7">
-        <v>1.738023960257863</v>
+        <v>3.088831366950188</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.970662849450974</v>
+        <v>0.7848144384463751</v>
       </c>
       <c r="C8">
-        <v>0.4215107360739978</v>
+        <v>0.1286939708748776</v>
       </c>
       <c r="D8">
-        <v>0.1067291719765961</v>
+        <v>0.1844286393234356</v>
       </c>
       <c r="E8">
-        <v>0.07684335984898283</v>
+        <v>0.1508359987519192</v>
       </c>
       <c r="F8">
-        <v>0.7872589773048304</v>
+        <v>1.306850338438409</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07596740247024059</v>
+        <v>0.1623137448547993</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.559999480064441</v>
+        <v>0.3284701807484822</v>
       </c>
       <c r="N8">
-        <v>0.7125313803410336</v>
+        <v>1.266671156984081</v>
       </c>
       <c r="O8">
-        <v>1.872264578881186</v>
+        <v>3.087140316565183</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.651557277463837</v>
+        <v>0.9834310707373675</v>
       </c>
       <c r="C9">
-        <v>0.5596070777303339</v>
+        <v>0.1712677543410734</v>
       </c>
       <c r="D9">
-        <v>0.1296923226741598</v>
+        <v>0.1888015522038273</v>
       </c>
       <c r="E9">
-        <v>0.0886081508217238</v>
+        <v>0.1518181341628058</v>
       </c>
       <c r="F9">
-        <v>0.9194962739318413</v>
+        <v>1.315825453781031</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08337266773153118</v>
+        <v>0.1614649933582584</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7494814386868782</v>
+        <v>0.3802916761949717</v>
       </c>
       <c r="N9">
-        <v>0.6462239604782525</v>
+        <v>1.237516110773022</v>
       </c>
       <c r="O9">
-        <v>2.172472071247512</v>
+        <v>3.099692961937166</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.156959914521565</v>
+        <v>1.12980988716015</v>
       </c>
       <c r="C10">
-        <v>0.6615629235857625</v>
+        <v>0.2023739132524724</v>
       </c>
       <c r="D10">
-        <v>0.1470783913265592</v>
+        <v>0.1923012054906224</v>
       </c>
       <c r="E10">
-        <v>0.09786227519913027</v>
+        <v>0.1528409420400436</v>
       </c>
       <c r="F10">
-        <v>1.026658432074996</v>
+        <v>1.326211335182563</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08965352127453485</v>
+        <v>0.161219379845619</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8907882035200174</v>
+        <v>0.4188671138120412</v>
       </c>
       <c r="N10">
-        <v>0.6034474951870124</v>
+        <v>1.218541556089214</v>
       </c>
       <c r="O10">
-        <v>2.420150379774867</v>
+        <v>3.118630717820906</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.388494731220533</v>
+        <v>1.196494336769433</v>
       </c>
       <c r="C11">
-        <v>0.7081368946067812</v>
+        <v>0.2164858720073539</v>
       </c>
       <c r="D11">
-        <v>0.1551202000409546</v>
+        <v>0.1939550189968173</v>
       </c>
       <c r="E11">
-        <v>0.1022264168869818</v>
+        <v>0.1533714777817572</v>
       </c>
       <c r="F11">
-        <v>1.077982458220276</v>
+        <v>1.331761850221284</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09272231337661196</v>
+        <v>0.161189773102862</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9556835201910019</v>
+        <v>0.4365235089980288</v>
       </c>
       <c r="N11">
-        <v>0.5854087560937415</v>
+        <v>1.210440145692978</v>
       </c>
       <c r="O11">
-        <v>2.539813155010734</v>
+        <v>3.129364915390653</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.476448504944813</v>
+        <v>1.22175897567115</v>
       </c>
       <c r="C12">
-        <v>0.7258085561378493</v>
+        <v>0.2218239880407111</v>
       </c>
       <c r="D12">
-        <v>0.1581863377074626</v>
+        <v>0.1945901053931465</v>
       </c>
       <c r="E12">
-        <v>0.1039031350395909</v>
+        <v>0.1535817417944436</v>
       </c>
       <c r="F12">
-        <v>1.097823863668225</v>
+        <v>1.333982585385598</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09391742300145722</v>
+        <v>0.1611903729857858</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9803598949146775</v>
+        <v>0.4432248629627793</v>
       </c>
       <c r="N12">
-        <v>0.5787942010163007</v>
+        <v>1.207448586409171</v>
       </c>
       <c r="O12">
-        <v>2.586230973944595</v>
+        <v>3.133735064077342</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.457493064307585</v>
+        <v>1.216317237252781</v>
       </c>
       <c r="C13">
-        <v>0.7220009637881617</v>
+        <v>0.220674590222643</v>
       </c>
       <c r="D13">
-        <v>0.1575250316604979</v>
+        <v>0.194452936785396</v>
       </c>
       <c r="E13">
-        <v>0.103540919426873</v>
+        <v>0.1535360416653546</v>
       </c>
       <c r="F13">
-        <v>1.093532001010061</v>
+        <v>1.333499021585141</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09365852251590212</v>
+        <v>0.1611897184468845</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.975040634321239</v>
+        <v>0.4417809326093973</v>
       </c>
       <c r="N13">
-        <v>0.5802089412750817</v>
+        <v>1.208089479688056</v>
       </c>
       <c r="O13">
-        <v>2.576183307914448</v>
+        <v>3.132780284921353</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.395724939859633</v>
+        <v>1.198572625987538</v>
       </c>
       <c r="C14">
-        <v>0.7095900053694493</v>
+        <v>0.2169251592593469</v>
       </c>
       <c r="D14">
-        <v>0.1553720238898819</v>
+        <v>0.1940070914765215</v>
       </c>
       <c r="E14">
-        <v>0.1023638667978197</v>
+        <v>0.1533885888330708</v>
       </c>
       <c r="F14">
-        <v>1.079606468826043</v>
+        <v>1.331942168375676</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09281995832444068</v>
+        <v>0.161189585727243</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9577115357343757</v>
+        <v>0.437074529320931</v>
       </c>
       <c r="N14">
-        <v>0.5848601649988083</v>
+        <v>1.210192499604076</v>
       </c>
       <c r="O14">
-        <v>2.543609256627946</v>
+        <v>3.129718327312474</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.357927531213704</v>
+        <v>1.187705158037318</v>
       </c>
       <c r="C15">
-        <v>0.7019927333799387</v>
+        <v>0.2146277646725423</v>
       </c>
       <c r="D15">
-        <v>0.1540560187568047</v>
+        <v>0.1937351454783993</v>
       </c>
       <c r="E15">
-        <v>0.1016460873541867</v>
+        <v>0.1532994882260965</v>
       </c>
       <c r="F15">
-        <v>1.071130674312414</v>
+        <v>1.331004035156681</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09231069475365672</v>
+        <v>0.1611910426748295</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9471106590672704</v>
+        <v>0.434193699746757</v>
       </c>
       <c r="N15">
-        <v>0.5877377185047052</v>
+        <v>1.211490593335377</v>
       </c>
       <c r="O15">
-        <v>2.523803555401855</v>
+        <v>3.127882571649309</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.141864853605171</v>
+        <v>1.125453737494524</v>
       </c>
       <c r="C16">
-        <v>0.6585237089457223</v>
+        <v>0.2014508691615049</v>
       </c>
       <c r="D16">
-        <v>0.1465556618650794</v>
+        <v>0.1921943630472498</v>
       </c>
       <c r="E16">
-        <v>0.09758033522536635</v>
+        <v>0.152807581503982</v>
       </c>
       <c r="F16">
-        <v>1.023359106235262</v>
+        <v>1.325865224984611</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08945744400108424</v>
+        <v>0.1612229674289409</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8865606392683034</v>
+        <v>0.4177153788506942</v>
       </c>
       <c r="N16">
-        <v>0.6046559642010081</v>
+        <v>1.219081673563124</v>
       </c>
       <c r="O16">
-        <v>2.412479102283584</v>
+        <v>3.117971908942053</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.009762980469077</v>
+        <v>1.087288296636984</v>
       </c>
       <c r="C17">
-        <v>0.6319114533642676</v>
+        <v>0.1933572557215371</v>
       </c>
       <c r="D17">
-        <v>0.1419896760921517</v>
+        <v>0.191264926620903</v>
       </c>
       <c r="E17">
-        <v>0.09512698780504891</v>
+        <v>0.1525225104457633</v>
       </c>
       <c r="F17">
-        <v>0.9947370286819961</v>
+        <v>1.322924348012705</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08776305018266584</v>
+        <v>0.161263587558544</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8495818106974085</v>
+        <v>0.4076339680218624</v>
       </c>
       <c r="N17">
-        <v>0.6154068907567449</v>
+        <v>1.223874371549478</v>
       </c>
       <c r="O17">
-        <v>2.346043942660913</v>
+        <v>3.112435263477664</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.933931623649926</v>
+        <v>1.06534564640998</v>
       </c>
       <c r="C18">
-        <v>0.6166225535356489</v>
+        <v>0.1886984252590196</v>
       </c>
       <c r="D18">
-        <v>0.139375827122592</v>
+        <v>0.1907361604539943</v>
       </c>
       <c r="E18">
-        <v>0.09373029711016301</v>
+        <v>0.1523646885632139</v>
       </c>
       <c r="F18">
-        <v>0.9785144809471547</v>
+        <v>1.32131056690146</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08680822990421433</v>
+        <v>0.1612946809670532</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8283694968966557</v>
+        <v>0.4018456128867243</v>
       </c>
       <c r="N18">
-        <v>0.6217234704746843</v>
+        <v>1.226680908694924</v>
       </c>
       <c r="O18">
-        <v>2.308484045237151</v>
+        <v>3.109450176644032</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.908280964468986</v>
+        <v>1.057917839450226</v>
       </c>
       <c r="C19">
-        <v>0.6114488354075718</v>
+        <v>0.1871204151584323</v>
       </c>
       <c r="D19">
-        <v>0.1384928977734745</v>
+        <v>0.1905581310492153</v>
       </c>
       <c r="E19">
-        <v>0.09325982059243998</v>
+        <v>0.1523123085999067</v>
       </c>
       <c r="F19">
-        <v>0.973061998850298</v>
+        <v>1.320777515849528</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0864882602969459</v>
+        <v>0.1613065362001294</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8211967525821464</v>
+        <v>0.3998875374042612</v>
       </c>
       <c r="N19">
-        <v>0.6238846334803725</v>
+        <v>1.227639724314258</v>
       </c>
       <c r="O19">
-        <v>2.295875983018675</v>
+        <v>3.108473714587063</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.023809610694002</v>
+        <v>1.091350139063593</v>
       </c>
       <c r="C20">
-        <v>0.6347424842232954</v>
+        <v>0.1942192089358628</v>
       </c>
       <c r="D20">
-        <v>0.1424744387489909</v>
+        <v>0.1913632647209198</v>
       </c>
       <c r="E20">
-        <v>0.0953866460663555</v>
+        <v>0.1525522210822068</v>
       </c>
       <c r="F20">
-        <v>0.9977587963185499</v>
+        <v>1.323229363468158</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08794135903014677</v>
+        <v>0.1612584634587506</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8535122829081132</v>
+        <v>0.4087060973625896</v>
       </c>
       <c r="N20">
-        <v>0.6142485938153541</v>
+        <v>1.223359015614697</v>
       </c>
       <c r="O20">
-        <v>2.353047924754321</v>
+        <v>3.113004002756838</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.413859869710791</v>
+        <v>1.203784313085464</v>
       </c>
       <c r="C21">
-        <v>0.7132343908642156</v>
+        <v>0.2180266168311675</v>
       </c>
       <c r="D21">
-        <v>0.156003832928576</v>
+        <v>0.1941378081049692</v>
       </c>
       <c r="E21">
-        <v>0.1027089253477911</v>
+        <v>0.1534316454069717</v>
       </c>
       <c r="F21">
-        <v>1.083685414708825</v>
+        <v>1.332396226789413</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09306534699969404</v>
+        <v>0.1611893041387376</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9627986318358666</v>
+        <v>0.4384565023099256</v>
       </c>
       <c r="N21">
-        <v>0.5834880163902625</v>
+        <v>1.209572721532183</v>
       </c>
       <c r="O21">
-        <v>2.553146255732713</v>
+        <v>3.130609406952829</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.670414799059017</v>
+        <v>1.277339966275406</v>
       </c>
       <c r="C22">
-        <v>0.7647418728782895</v>
+        <v>0.2335523460442346</v>
       </c>
       <c r="D22">
-        <v>0.1649687002816336</v>
+        <v>0.1960025307827067</v>
       </c>
       <c r="E22">
-        <v>0.1076359950936272</v>
+        <v>0.1540609566875517</v>
       </c>
       <c r="F22">
-        <v>1.142229178476683</v>
+        <v>1.339080249918709</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09660801247991202</v>
+        <v>0.161212950868979</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.034824812448683</v>
+        <v>0.4579889198584937</v>
       </c>
       <c r="N22">
-        <v>0.5646513444141092</v>
+        <v>1.20100715054685</v>
       </c>
       <c r="O22">
-        <v>2.690409151974507</v>
+        <v>3.143895588780936</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.533321923110861</v>
+        <v>1.238075580807845</v>
       </c>
       <c r="C23">
-        <v>0.7372297177897735</v>
+        <v>0.2252691482454736</v>
       </c>
       <c r="D23">
-        <v>0.1601721368701448</v>
+        <v>0.1950026114224102</v>
       </c>
       <c r="E23">
-        <v>0.104992705514924</v>
+        <v>0.1537200967275858</v>
       </c>
       <c r="F23">
-        <v>1.110752423776177</v>
+        <v>1.335449420411095</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0946985782528742</v>
+        <v>0.1611940300483923</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9963232816787979</v>
+        <v>0.4475560753049947</v>
       </c>
       <c r="N23">
-        <v>0.5745846692850947</v>
+        <v>1.20553806929663</v>
       </c>
       <c r="O23">
-        <v>2.616521184531706</v>
+        <v>3.136641437087491</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.017458771776603</v>
+        <v>1.089513782602921</v>
       </c>
       <c r="C24">
-        <v>0.6334625419468125</v>
+        <v>0.1938295376376971</v>
       </c>
       <c r="D24">
-        <v>0.142255242808659</v>
+        <v>0.1913187886829633</v>
       </c>
       <c r="E24">
-        <v>0.09526921181429415</v>
+        <v>0.1525387699969585</v>
       </c>
       <c r="F24">
-        <v>0.9963919331392219</v>
+        <v>1.323091226235576</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08786068565005678</v>
+        <v>0.1612607559540962</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8517351700855684</v>
+        <v>0.4082213640474066</v>
       </c>
       <c r="N24">
-        <v>0.6147718379992142</v>
+        <v>1.223591848697872</v>
       </c>
       <c r="O24">
-        <v>2.349879455297298</v>
+        <v>3.112746258993297</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.466610205356574</v>
+        <v>0.9296177607382674</v>
       </c>
       <c r="C25">
-        <v>0.5221875913936742</v>
+        <v>0.1597801857502645</v>
       </c>
       <c r="D25">
-        <v>0.1233962978576528</v>
+        <v>0.1875679833431008</v>
       </c>
       <c r="E25">
-        <v>0.08532515575643984</v>
+        <v>0.1514994746219962</v>
       </c>
       <c r="F25">
-        <v>0.8820928806775186</v>
+        <v>1.312732273432502</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08123106896017873</v>
+        <v>0.1616282430516662</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6979034052671125</v>
+        <v>0.3661837642558297</v>
       </c>
       <c r="N25">
-        <v>0.663160969101817</v>
+        <v>1.244973677795059</v>
       </c>
       <c r="O25">
-        <v>2.086846952690877</v>
+        <v>3.094594007562904</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_211/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_211/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8122020464435877</v>
+        <v>2.064312164292289</v>
       </c>
       <c r="C2">
-        <v>0.1345957226481289</v>
+        <v>0.4405618487968184</v>
       </c>
       <c r="D2">
-        <v>0.1849994499780649</v>
+        <v>0.1098493627479229</v>
       </c>
       <c r="E2">
-        <v>0.1509367944983744</v>
+        <v>0.07840560429019305</v>
       </c>
       <c r="F2">
-        <v>1.307652727885483</v>
+        <v>0.8045079141828211</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1621527824639308</v>
+        <v>0.0769032284534461</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3355715691277439</v>
+        <v>0.5859903430960998</v>
       </c>
       <c r="N2">
-        <v>1.26235982779518</v>
+        <v>0.7027274332672562</v>
       </c>
       <c r="O2">
-        <v>3.087754504164849</v>
+        <v>1.910979242947519</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7328332203226466</v>
+        <v>1.793040669667448</v>
       </c>
       <c r="C3">
-        <v>0.1174590017972434</v>
+        <v>0.3853195972293406</v>
       </c>
       <c r="D3">
-        <v>0.1833800931508165</v>
+        <v>0.1008512736026361</v>
       </c>
       <c r="E3">
-        <v>0.1506820903074768</v>
+        <v>0.07393710992775482</v>
       </c>
       <c r="F3">
-        <v>1.305795992869385</v>
+        <v>0.7554764042166155</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1626666169639392</v>
+        <v>0.07427544480715298</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3150397459795542</v>
+        <v>0.5107742240567958</v>
       </c>
       <c r="N3">
-        <v>1.275168404928138</v>
+        <v>0.7318175023768561</v>
       </c>
       <c r="O3">
-        <v>3.087176000199122</v>
+        <v>1.801383195132814</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6842055932467019</v>
+        <v>1.626950681385239</v>
       </c>
       <c r="C4">
-        <v>0.1069039566617107</v>
+        <v>0.3514045205987202</v>
       </c>
       <c r="D4">
-        <v>0.1824459978110298</v>
+        <v>0.09540796222549375</v>
       </c>
       <c r="E4">
-        <v>0.150588278072906</v>
+        <v>0.07129330771715203</v>
       </c>
       <c r="F4">
-        <v>1.30543718257028</v>
+        <v>0.7269532140295354</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1630602117256466</v>
+        <v>0.07280032003902903</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3025399794180998</v>
+        <v>0.4648366617452737</v>
       </c>
       <c r="N4">
-        <v>1.283539258625073</v>
+        <v>0.7507458838366894</v>
       </c>
       <c r="O4">
-        <v>3.088817609988155</v>
+        <v>1.738360709503212</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.664416904313299</v>
+        <v>1.559359064069554</v>
       </c>
       <c r="C5">
-        <v>0.1025946173464831</v>
+        <v>0.3375803946577776</v>
       </c>
       <c r="D5">
-        <v>0.1820805468698694</v>
+        <v>0.09320911070186355</v>
       </c>
       <c r="E5">
-        <v>0.1505658086636359</v>
+        <v>0.07023979142424963</v>
       </c>
       <c r="F5">
-        <v>1.305487348835094</v>
+        <v>0.7157043178521292</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1632402463017719</v>
+        <v>0.07223228062035503</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2974733748442873</v>
+        <v>0.446169768983971</v>
       </c>
       <c r="N5">
-        <v>1.287077808195264</v>
+        <v>0.7587197827576446</v>
       </c>
       <c r="O5">
-        <v>3.089988244028518</v>
+        <v>1.713688043689757</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6611326965137891</v>
+        <v>1.548140282676968</v>
       </c>
       <c r="C6">
-        <v>0.1018785741301258</v>
+        <v>0.3352845762694301</v>
       </c>
       <c r="D6">
-        <v>0.1820207839669337</v>
+        <v>0.0928451284458518</v>
       </c>
       <c r="E6">
-        <v>0.1505630302076781</v>
+        <v>0.07006626101712143</v>
       </c>
       <c r="F6">
-        <v>1.305507538229946</v>
+        <v>0.713858408072511</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1632713272993058</v>
+        <v>0.07213990829635009</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2966337172371283</v>
+        <v>0.4430731047960634</v>
       </c>
       <c r="N6">
-        <v>1.287673074963148</v>
+        <v>0.7600593499003949</v>
       </c>
       <c r="O6">
-        <v>3.090212913113533</v>
+        <v>1.709650324251442</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6839386035113932</v>
+        <v>1.626038781942924</v>
       </c>
       <c r="C7">
-        <v>0.1068458717813314</v>
+        <v>0.3512181032483568</v>
       </c>
       <c r="D7">
-        <v>0.1824410075814882</v>
+        <v>0.09537823092301068</v>
       </c>
       <c r="E7">
-        <v>0.1505879111991817</v>
+        <v>0.07127900465859227</v>
       </c>
       <c r="F7">
-        <v>1.30543706406246</v>
+        <v>0.7268000209964356</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1630625602029845</v>
+        <v>0.07279252748304899</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3024715391060084</v>
+        <v>0.4645847098656688</v>
       </c>
       <c r="N7">
-        <v>1.283586465022381</v>
+        <v>0.750852378238541</v>
       </c>
       <c r="O7">
-        <v>3.088831366950188</v>
+        <v>1.738023960257863</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7848144384463751</v>
+        <v>1.970662849450974</v>
       </c>
       <c r="C8">
-        <v>0.1286939708748776</v>
+        <v>0.4215107360737704</v>
       </c>
       <c r="D8">
-        <v>0.1844286393234356</v>
+        <v>0.1067291719767098</v>
       </c>
       <c r="E8">
-        <v>0.1508359987519192</v>
+        <v>0.07684335984898283</v>
       </c>
       <c r="F8">
-        <v>1.306850338438409</v>
+        <v>0.7872589773048304</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1623137448547993</v>
+        <v>0.07596740247024059</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3284701807484822</v>
+        <v>0.5599994800644268</v>
       </c>
       <c r="N8">
-        <v>1.266671156984081</v>
+        <v>0.7125313803410336</v>
       </c>
       <c r="O8">
-        <v>3.087140316565183</v>
+        <v>1.872264578881243</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9834310707373675</v>
+        <v>2.65155727746361</v>
       </c>
       <c r="C9">
-        <v>0.1712677543410734</v>
+        <v>0.5596070777301065</v>
       </c>
       <c r="D9">
-        <v>0.1888015522038273</v>
+        <v>0.129692322674245</v>
       </c>
       <c r="E9">
-        <v>0.1518181341628058</v>
+        <v>0.0886081508217238</v>
       </c>
       <c r="F9">
-        <v>1.315825453781031</v>
+        <v>0.9194962739318413</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1614649933582584</v>
+        <v>0.08337266773152407</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3802916761949717</v>
+        <v>0.749481438686864</v>
       </c>
       <c r="N9">
-        <v>1.237516110773022</v>
+        <v>0.6462239604782525</v>
       </c>
       <c r="O9">
-        <v>3.099692961937166</v>
+        <v>2.17247207124754</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.12980988716015</v>
+        <v>3.156959914521735</v>
       </c>
       <c r="C10">
-        <v>0.2023739132524724</v>
+        <v>0.6615629235858762</v>
       </c>
       <c r="D10">
-        <v>0.1923012054906224</v>
+        <v>0.1470783913263745</v>
       </c>
       <c r="E10">
-        <v>0.1528409420400436</v>
+        <v>0.09786227519913027</v>
       </c>
       <c r="F10">
-        <v>1.326211335182563</v>
+        <v>1.026658432074996</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.161219379845619</v>
+        <v>0.08965352127452064</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4188671138120412</v>
+        <v>0.8907882035200174</v>
       </c>
       <c r="N10">
-        <v>1.218541556089214</v>
+        <v>0.6034474951870052</v>
       </c>
       <c r="O10">
-        <v>3.118630717820906</v>
+        <v>2.420150379774896</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.196494336769433</v>
+        <v>3.388494731220533</v>
       </c>
       <c r="C11">
-        <v>0.2164858720073539</v>
+        <v>0.7081368946066675</v>
       </c>
       <c r="D11">
-        <v>0.1939550189968173</v>
+        <v>0.1551202000410683</v>
       </c>
       <c r="E11">
-        <v>0.1533714777817572</v>
+        <v>0.1022264168869746</v>
       </c>
       <c r="F11">
-        <v>1.331761850221284</v>
+        <v>1.077982458220234</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.161189773102862</v>
+        <v>0.0927223133766546</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4365235089980288</v>
+        <v>0.955683520191009</v>
       </c>
       <c r="N11">
-        <v>1.210440145692978</v>
+        <v>0.5854087560937415</v>
       </c>
       <c r="O11">
-        <v>3.129364915390653</v>
+        <v>2.539813155010791</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.22175897567115</v>
+        <v>3.476448504944813</v>
       </c>
       <c r="C12">
-        <v>0.2218239880407111</v>
+        <v>0.7258085561378493</v>
       </c>
       <c r="D12">
-        <v>0.1945901053931465</v>
+        <v>0.1581863377074484</v>
       </c>
       <c r="E12">
-        <v>0.1535817417944436</v>
+        <v>0.1039031350395874</v>
       </c>
       <c r="F12">
-        <v>1.333982585385598</v>
+        <v>1.097823863668211</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1611903729857858</v>
+        <v>0.09391742300144301</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4432248629627793</v>
+        <v>0.9803598949146917</v>
       </c>
       <c r="N12">
-        <v>1.207448586409171</v>
+        <v>0.5787942010162368</v>
       </c>
       <c r="O12">
-        <v>3.133735064077342</v>
+        <v>2.586230973944595</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.216317237252781</v>
+        <v>3.457493064307528</v>
       </c>
       <c r="C13">
-        <v>0.220674590222643</v>
+        <v>0.722000963788048</v>
       </c>
       <c r="D13">
-        <v>0.194452936785396</v>
+        <v>0.1575250316604553</v>
       </c>
       <c r="E13">
-        <v>0.1535360416653546</v>
+        <v>0.1035409194268695</v>
       </c>
       <c r="F13">
-        <v>1.333499021585141</v>
+        <v>1.093532001010047</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1611897184468845</v>
+        <v>0.09365852251593054</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4417809326093973</v>
+        <v>0.9750406343212248</v>
       </c>
       <c r="N13">
-        <v>1.208089479688056</v>
+        <v>0.5802089412750107</v>
       </c>
       <c r="O13">
-        <v>3.132780284921353</v>
+        <v>2.576183307914476</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.198572625987538</v>
+        <v>3.395724939859747</v>
       </c>
       <c r="C14">
-        <v>0.2169251592593469</v>
+        <v>0.7095900053694209</v>
       </c>
       <c r="D14">
-        <v>0.1940070914765215</v>
+        <v>0.1553720238897824</v>
       </c>
       <c r="E14">
-        <v>0.1533885888330708</v>
+        <v>0.1023638667978197</v>
       </c>
       <c r="F14">
-        <v>1.331942168375676</v>
+        <v>1.079606468826043</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.161189585727243</v>
+        <v>0.09281995832439804</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.437074529320931</v>
+        <v>0.9577115357343686</v>
       </c>
       <c r="N14">
-        <v>1.210192499604076</v>
+        <v>0.5848601649988083</v>
       </c>
       <c r="O14">
-        <v>3.129718327312474</v>
+        <v>2.543609256628031</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.187705158037318</v>
+        <v>3.357927531213591</v>
       </c>
       <c r="C15">
-        <v>0.2146277646725423</v>
+        <v>0.7019927333800524</v>
       </c>
       <c r="D15">
-        <v>0.1937351454783993</v>
+        <v>0.1540560187569184</v>
       </c>
       <c r="E15">
-        <v>0.1532994882260965</v>
+        <v>0.1016460873542258</v>
       </c>
       <c r="F15">
-        <v>1.331004035156681</v>
+        <v>1.071130674312442</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1611910426748295</v>
+        <v>0.09231069475360698</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.434193699746757</v>
+        <v>0.9471106590672491</v>
       </c>
       <c r="N15">
-        <v>1.211490593335377</v>
+        <v>0.5877377185047763</v>
       </c>
       <c r="O15">
-        <v>3.127882571649309</v>
+        <v>2.523803555401912</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.125453737494524</v>
+        <v>3.141864853605057</v>
       </c>
       <c r="C16">
-        <v>0.2014508691615049</v>
+        <v>0.6585237089456939</v>
       </c>
       <c r="D16">
-        <v>0.1921943630472498</v>
+        <v>0.1465556618650794</v>
       </c>
       <c r="E16">
-        <v>0.152807581503982</v>
+        <v>0.09758033522535925</v>
       </c>
       <c r="F16">
-        <v>1.325865224984611</v>
+        <v>1.023359106235276</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1612229674289409</v>
+        <v>0.08945744400107714</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4177153788506942</v>
+        <v>0.8865606392683176</v>
       </c>
       <c r="N16">
-        <v>1.219081673563124</v>
+        <v>0.6046559642010081</v>
       </c>
       <c r="O16">
-        <v>3.117971908942053</v>
+        <v>2.412479102283584</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.087288296636984</v>
+        <v>3.009762980468963</v>
       </c>
       <c r="C17">
-        <v>0.1933572557215371</v>
+        <v>0.6319114533641255</v>
       </c>
       <c r="D17">
-        <v>0.191264926620903</v>
+        <v>0.141989676091967</v>
       </c>
       <c r="E17">
-        <v>0.1525225104457633</v>
+        <v>0.09512698780506668</v>
       </c>
       <c r="F17">
-        <v>1.322924348012705</v>
+        <v>0.9947370286819961</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.161263587558544</v>
+        <v>0.08776305018265873</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4076339680218624</v>
+        <v>0.8495818106974298</v>
       </c>
       <c r="N17">
-        <v>1.223874371549478</v>
+        <v>0.6154068907567378</v>
       </c>
       <c r="O17">
-        <v>3.112435263477664</v>
+        <v>2.346043942660941</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.06534564640998</v>
+        <v>2.933931623649812</v>
       </c>
       <c r="C18">
-        <v>0.1886984252590196</v>
+        <v>0.6166225535355068</v>
       </c>
       <c r="D18">
-        <v>0.1907361604539943</v>
+        <v>0.1393758271226631</v>
       </c>
       <c r="E18">
-        <v>0.1523646885632139</v>
+        <v>0.09373029711015946</v>
       </c>
       <c r="F18">
-        <v>1.32131056690146</v>
+        <v>0.9785144809471689</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1612946809670532</v>
+        <v>0.08680822990418591</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4018456128867243</v>
+        <v>0.8283694968966486</v>
       </c>
       <c r="N18">
-        <v>1.226680908694924</v>
+        <v>0.6217234704746915</v>
       </c>
       <c r="O18">
-        <v>3.109450176644032</v>
+        <v>2.308484045237151</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.057917839450226</v>
+        <v>2.908280964468986</v>
       </c>
       <c r="C19">
-        <v>0.1871204151584323</v>
+        <v>0.6114488354077139</v>
       </c>
       <c r="D19">
-        <v>0.1905581310492153</v>
+        <v>0.1384928977734745</v>
       </c>
       <c r="E19">
-        <v>0.1523123085999067</v>
+        <v>0.09325982059243998</v>
       </c>
       <c r="F19">
-        <v>1.320777515849528</v>
+        <v>0.973061998850298</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1613065362001294</v>
+        <v>0.0864882602969459</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3998875374042612</v>
+        <v>0.8211967525821322</v>
       </c>
       <c r="N19">
-        <v>1.227639724314258</v>
+        <v>0.6238846334803085</v>
       </c>
       <c r="O19">
-        <v>3.108473714587063</v>
+        <v>2.295875983018675</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.091350139063593</v>
+        <v>3.023809610694059</v>
       </c>
       <c r="C20">
-        <v>0.1942192089358628</v>
+        <v>0.6347424842236933</v>
       </c>
       <c r="D20">
-        <v>0.1913632647209198</v>
+        <v>0.1424744387489199</v>
       </c>
       <c r="E20">
-        <v>0.1525522210822068</v>
+        <v>0.09538664606634129</v>
       </c>
       <c r="F20">
-        <v>1.323229363468158</v>
+        <v>0.9977587963185641</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1612584634587506</v>
+        <v>0.08794135903016098</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4087060973625896</v>
+        <v>0.8535122829081132</v>
       </c>
       <c r="N20">
-        <v>1.223359015614697</v>
+        <v>0.6142485938153612</v>
       </c>
       <c r="O20">
-        <v>3.113004002756838</v>
+        <v>2.353047924754378</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.203784313085464</v>
+        <v>3.413859869710677</v>
       </c>
       <c r="C21">
-        <v>0.2180266168311675</v>
+        <v>0.7132343908642724</v>
       </c>
       <c r="D21">
-        <v>0.1941378081049692</v>
+        <v>0.1560038329283486</v>
       </c>
       <c r="E21">
-        <v>0.1534316454069717</v>
+        <v>0.1027089253478017</v>
       </c>
       <c r="F21">
-        <v>1.332396226789413</v>
+        <v>1.08368541470881</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1611893041387376</v>
+        <v>0.09306534699960878</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4384565023099256</v>
+        <v>0.9627986318358808</v>
       </c>
       <c r="N21">
-        <v>1.209572721532183</v>
+        <v>0.5834880163902554</v>
       </c>
       <c r="O21">
-        <v>3.130609406952829</v>
+        <v>2.55314625573277</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.277339966275406</v>
+        <v>3.67041479905896</v>
       </c>
       <c r="C22">
-        <v>0.2335523460442346</v>
+        <v>0.7647418728783464</v>
       </c>
       <c r="D22">
-        <v>0.1960025307827067</v>
+        <v>0.1649687002817188</v>
       </c>
       <c r="E22">
-        <v>0.1540609566875517</v>
+        <v>0.107635995093613</v>
       </c>
       <c r="F22">
-        <v>1.339080249918709</v>
+        <v>1.142229178476697</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.161212950868979</v>
+        <v>0.09660801247991202</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4579889198584937</v>
+        <v>1.034824812448676</v>
       </c>
       <c r="N22">
-        <v>1.20100715054685</v>
+        <v>0.5646513444140879</v>
       </c>
       <c r="O22">
-        <v>3.143895588780936</v>
+        <v>2.690409151974592</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.238075580807845</v>
+        <v>3.533321923110748</v>
       </c>
       <c r="C23">
-        <v>0.2252691482454736</v>
+        <v>0.7372297177897167</v>
       </c>
       <c r="D23">
-        <v>0.1950026114224102</v>
+        <v>0.1601721368699742</v>
       </c>
       <c r="E23">
-        <v>0.1537200967275858</v>
+        <v>0.1049927055149205</v>
       </c>
       <c r="F23">
-        <v>1.335449420411095</v>
+        <v>1.110752423776191</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1611940300483923</v>
+        <v>0.09469857825278183</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4475560753049947</v>
+        <v>0.9963232816787979</v>
       </c>
       <c r="N23">
-        <v>1.20553806929663</v>
+        <v>0.5745846692850876</v>
       </c>
       <c r="O23">
-        <v>3.136641437087491</v>
+        <v>2.616521184531678</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.089513782602921</v>
+        <v>3.017458771776433</v>
       </c>
       <c r="C24">
-        <v>0.1938295376376971</v>
+        <v>0.6334625419465851</v>
       </c>
       <c r="D24">
-        <v>0.1913187886829633</v>
+        <v>0.14225524280873</v>
       </c>
       <c r="E24">
-        <v>0.1525387699969585</v>
+        <v>0.0952692118142906</v>
       </c>
       <c r="F24">
-        <v>1.323091226235576</v>
+        <v>0.9963919331392219</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1612607559540962</v>
+        <v>0.08786068565010652</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4082213640474066</v>
+        <v>0.8517351700855613</v>
       </c>
       <c r="N24">
-        <v>1.223591848697872</v>
+        <v>0.6147718379992639</v>
       </c>
       <c r="O24">
-        <v>3.112746258993297</v>
+        <v>2.349879455297298</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9296177607382674</v>
+        <v>2.466610205356517</v>
       </c>
       <c r="C25">
-        <v>0.1597801857502645</v>
+        <v>0.5221875913937026</v>
       </c>
       <c r="D25">
-        <v>0.1875679833431008</v>
+        <v>0.1233962978575107</v>
       </c>
       <c r="E25">
-        <v>0.1514994746219962</v>
+        <v>0.08532515575641852</v>
       </c>
       <c r="F25">
-        <v>1.312732273432502</v>
+        <v>0.8820928806775186</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1616282430516662</v>
+        <v>0.08123106896010768</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3661837642558297</v>
+        <v>0.6979034052670983</v>
       </c>
       <c r="N25">
-        <v>1.244973677795059</v>
+        <v>0.6631609691018028</v>
       </c>
       <c r="O25">
-        <v>3.094594007562904</v>
+        <v>2.086846952690877</v>
       </c>
     </row>
   </sheetData>
